--- a/PhymProject/db.xlsx
+++ b/PhymProject/db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\template project\git\binhnguyen2001.github.io\PhymProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Template project\git\binhnguyen2001.github.io\PhymProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22E6A3-2FC0-4E83-9D9A-3F82899D2ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7169A-AE0B-4B73-A216-355B0A796309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>Logo</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Diễn viên</t>
+  </si>
+  <si>
+    <t>Logo + Hi Team</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +519,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -546,35 +546,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91E02F-4D9B-41BC-B7BC-8549A9CDA980}">
   <dimension ref="C2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,19 +763,19 @@
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -799,20 +799,20 @@
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>2</v>
@@ -822,7 +822,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -831,7 +831,7 @@
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -841,14 +841,14 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -954,15 +954,15 @@
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1029,15 +1029,15 @@
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1049,24 +1049,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:E10"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="G7:K13"/>
     <mergeCell ref="M2:Q3"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="M7:Q13"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:E10"/>
-    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="C21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
